--- a/updated_file.xlsx
+++ b/updated_file.xlsx
@@ -2236,7 +2236,7 @@
     <t xml:space="preserve">Alex Tenbroeck</t>
   </si>
   <si>
-    <t xml:space="preserve">ATenbroeck@usatech.com</t>
+    <t xml:space="preserve">ATenbroeck@cantaloupe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Mathews, Owen </t>
@@ -3694,7 +3694,7 @@
     <t xml:space="preserve">Amrutha Podugu</t>
   </si>
   <si>
-    <t xml:space="preserve">apodugu@usatech.com</t>
+    <t xml:space="preserve">apodugu@cantaloupe.com</t>
   </si>
   <si>
     <t xml:space="preserve">Senior QA Engineer (Grade II)</t>
@@ -4285,8 +4285,8 @@
   </sheetPr>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C180" activeCellId="0" sqref="C180"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C184" activeCellId="0" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9366,7 +9366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>735</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>1221</v>
       </c>
@@ -14534,9 +14534,11 @@
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1" display="vjones@cantaloupe.com"/>
     <hyperlink ref="C32" r:id="rId2" display="Cfreeman@cantaloupe.com"/>
-    <hyperlink ref="C180" r:id="rId3" display="RHurley@cantaloupe"/>
-    <hyperlink ref="C343" r:id="rId4" display="dgranovsky@cantaloupe.com"/>
-    <hyperlink ref="C344" r:id="rId5" display="sprokhorov@cantaloupe.com"/>
+    <hyperlink ref="C180" r:id="rId3" display="RHurley@cantaloupe.com"/>
+    <hyperlink ref="C183" r:id="rId4" display="ATenbroeck@cantaloupe"/>
+    <hyperlink ref="C317" r:id="rId5" display="apodugu@cantaloupe"/>
+    <hyperlink ref="C343" r:id="rId6" display="dgranovsky@cantaloupe.com"/>
+    <hyperlink ref="C344" r:id="rId7" display="sprokhorov@cantaloupe.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -14545,6 +14547,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>